--- a/public/text/主题日报数据录入模板.xlsx
+++ b/public/text/主题日报数据录入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23415" windowHeight="13140"/>
+    <workbookView windowWidth="27300" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,100 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>MyPc</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>日期格式为：
+年-月-日
+示例：
+2019-01-01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>MyPc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+渠道内容必须与下拉可选填内容一致
+华为,华为海外,oppo,oppo海外,vivo,vivo海外,金立,金立海外,三星,魅族,努比亚,360,中兴</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>MyPc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+必须与渠道后台上架名称一致</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>MyPc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+输入备注信息，最多50字</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>日期</t>
   </si>
@@ -45,18 +137,21 @@
   <si>
     <t>销售额</t>
   </si>
+  <si>
+    <t>备注</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,32 +160,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,68 +190,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,34 +259,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -224,187 +330,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,28 +539,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,6 +577,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,50 +622,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,133 +656,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,15 +1118,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="16384" width="11.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1051,8 +1160,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1063,10 +1175,10 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3"/>
-      <c r="B3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1084,5 +1196,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/text/主题日报数据录入模板.xlsx
+++ b/public/text/主题日报数据录入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27300" windowHeight="13140"/>
+    <workbookView windowWidth="23340" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <author>MyPc</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -27,77 +27,48 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>日期格式为：
+          <t xml:space="preserve">日期格式为：
 年-月-日
 示例：
-2019-01-01</t>
+2019-01-01
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>MyPc:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-渠道内容必须与下拉可选填内容一致
+          <t>渠道内容必须与下拉可选填内容一致
 华为,华为海外,oppo,oppo海外,vivo,vivo海外,金立,金立海外,三星,魅族,努比亚,360,中兴</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>MyPc:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-必须与渠道后台上架名称一致</t>
+          <t>必须与渠道后台上架名称一致</t>
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>MyPc:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-输入备注信息，最多50字</t>
+          <t>输入备注信息，最多50字</t>
         </r>
       </text>
     </comment>
@@ -106,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
   </si>
@@ -140,18 +111,21 @@
   <si>
     <t>备注</t>
   </si>
+  <si>
+    <t>2019-10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +141,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -174,9 +156,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,12 +249,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -204,91 +271,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -296,20 +278,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -330,25 +298,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,67 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,85 +466,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +525,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -565,9 +572,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,47 +604,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,147 +624,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1118,75 +1092,78 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="16384" width="11.125" customWidth="1"/>
+    <col min="1" max="16384" width="11.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/public/text/主题日报数据录入模板.xlsx
+++ b/public/text/主题日报数据录入模板.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>日期</t>
   </si>
@@ -112,7 +112,34 @@
     <t>备注</t>
   </si>
   <si>
-    <t>2019-10</t>
+    <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>测试提示语</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>12566</t>
+  </si>
+  <si>
+    <t>3%</t>
+  </si>
+  <si>
+    <t>1256</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>存在坏账</t>
   </si>
 </sst>
 </file>
@@ -120,75 +147,74 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
+  <fonts count="22">
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="SourceHanSansSC-Light"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -196,22 +222,61 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -219,61 +284,29 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -292,7 +325,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,7 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,55 +469,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,109 +505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,17 +540,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,8 +552,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,15 +590,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -584,8 +602,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,173 +622,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -835,7 +852,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -851,7 +868,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -863,7 +880,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -880,9 +897,9 @@
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -915,9 +932,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1092,86 +1109,86 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="13.5" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="16384" width="11.125" style="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>750</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B161">
-      <formula1>"华为,华为海外,oppo,oppo海外,vivo,vivo海外,金立,金立海外,三星,魅族,努比亚,360,中兴"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
